--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1552,28 +1552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.67084708169816</v>
+        <v>113.0336365544884</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.6409236899593</v>
+        <v>154.6576082258864</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.36782500800219</v>
+        <v>139.8973031601666</v>
       </c>
       <c r="AD2" t="n">
-        <v>78670.84708169816</v>
+        <v>113033.6365544884</v>
       </c>
       <c r="AE2" t="n">
-        <v>107640.9236899593</v>
+        <v>154657.6082258864</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.102582114724856e-06</v>
+        <v>7.356211055427678e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.954861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>97367.82500800218</v>
+        <v>139897.3031601666</v>
       </c>
     </row>
     <row r="3">
@@ -1658,28 +1658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.95362306587147</v>
+        <v>89.22044816538924</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.45012144850105</v>
+        <v>122.0753533082106</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.05418003309384</v>
+        <v>110.4246529223414</v>
       </c>
       <c r="AD3" t="n">
-        <v>71953.62306587146</v>
+        <v>89220.44816538924</v>
       </c>
       <c r="AE3" t="n">
-        <v>98450.12144850106</v>
+        <v>122075.3533082106</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.828386318449691e-06</v>
+        <v>8.402577147628121e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.21412037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>89054.18003309384</v>
+        <v>110424.6529223414</v>
       </c>
     </row>
   </sheetData>
@@ -1955,28 +1955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.6250165303085</v>
+        <v>86.45995314886537</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.26401925567544</v>
+        <v>118.2983222421595</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.17215496182799</v>
+        <v>107.0080964001366</v>
       </c>
       <c r="AD2" t="n">
-        <v>69625.01653030849</v>
+        <v>86459.95314886537</v>
       </c>
       <c r="AE2" t="n">
-        <v>95264.01925567543</v>
+        <v>118298.3222421595</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.974456933804542e-06</v>
+        <v>8.746380198276069e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.260416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>86172.15496182798</v>
+        <v>107008.0964001366</v>
       </c>
     </row>
     <row r="3">
@@ -2061,28 +2061,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.57675086806263</v>
+        <v>86.41168748661951</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.19798004725995</v>
+        <v>118.232283033744</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.11241844277704</v>
+        <v>106.9483598810857</v>
       </c>
       <c r="AD3" t="n">
-        <v>69576.75086806263</v>
+        <v>86411.68748661951</v>
       </c>
       <c r="AE3" t="n">
-        <v>95197.98004725995</v>
+        <v>118232.283033744</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.999774501176144e-06</v>
+        <v>8.78344416448772e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.243055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>86112.41844277704</v>
+        <v>106948.3598810857</v>
       </c>
     </row>
   </sheetData>
@@ -2358,28 +2358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.3927335408179</v>
+        <v>96.29120676863364</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.47322295430951</v>
+        <v>131.7498771690187</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.93402413202892</v>
+        <v>119.1758538041566</v>
       </c>
       <c r="AD2" t="n">
-        <v>65392.73354081791</v>
+        <v>96291.20676863364</v>
       </c>
       <c r="AE2" t="n">
-        <v>89473.2229543095</v>
+        <v>131749.8771690187</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.894215041583593e-06</v>
+        <v>9.119078209474486e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.954861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>80934.02413202892</v>
+        <v>119175.8538041566</v>
       </c>
     </row>
   </sheetData>
@@ -2655,28 +2655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.34347624781175</v>
+        <v>90.40787278304516</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.77407106982584</v>
+        <v>123.7000400555636</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.11072112915258</v>
+        <v>111.8942818467897</v>
       </c>
       <c r="AD2" t="n">
-        <v>66343.47624781175</v>
+        <v>90407.87278304517</v>
       </c>
       <c r="AE2" t="n">
-        <v>90774.07106982583</v>
+        <v>123700.0400555636</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.079179102379396e-06</v>
+        <v>9.187426710489004e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.520833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>82110.72112915257</v>
+        <v>111894.2818467897</v>
       </c>
     </row>
   </sheetData>
@@ -2952,28 +2952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.40514903906588</v>
+        <v>103.5550547330585</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.4361633218311</v>
+        <v>141.6885944122951</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.8506768574612</v>
+        <v>128.1660338228151</v>
       </c>
       <c r="AD2" t="n">
-        <v>73405.14903906587</v>
+        <v>103555.0547330585</v>
       </c>
       <c r="AE2" t="n">
-        <v>100436.1633218311</v>
+        <v>141688.5944122951</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.520404819660268e-06</v>
+        <v>8.724933519302084e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.60300925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>90850.67685746119</v>
+        <v>128166.0338228151</v>
       </c>
     </row>
   </sheetData>
@@ -3249,28 +3249,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.18587353704329</v>
+        <v>96.43782929377174</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.39965267244017</v>
+        <v>131.9504925764418</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.10396652267768</v>
+        <v>119.3573227586608</v>
       </c>
       <c r="AD2" t="n">
-        <v>71185.8735370433</v>
+        <v>96437.82929377175</v>
       </c>
       <c r="AE2" t="n">
-        <v>97399.65267244016</v>
+        <v>131950.4925764418</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.81579788045348e-06</v>
+        <v>8.478771988976138e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.358796296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>88103.96652267769</v>
+        <v>119357.3227586608</v>
       </c>
     </row>
     <row r="3">
@@ -3355,28 +3355,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.24670302562139</v>
+        <v>87.19515783905285</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.11463814543461</v>
+        <v>119.3042617342153</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.94159197859992</v>
+        <v>107.9180304389159</v>
       </c>
       <c r="AD3" t="n">
-        <v>70246.70302562139</v>
+        <v>87195.15783905286</v>
       </c>
       <c r="AE3" t="n">
-        <v>96114.63814543461</v>
+        <v>119304.2617342153</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.950617009781784e-06</v>
+        <v>8.675322949106452e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.237268518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>86941.59197859991</v>
+        <v>107918.0304389159</v>
       </c>
     </row>
   </sheetData>
@@ -3652,28 +3652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.52874414479875</v>
+        <v>103.8349195964809</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.5512245332116</v>
+        <v>142.0715178651959</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.9049322269174</v>
+        <v>128.5124115988076</v>
       </c>
       <c r="AD2" t="n">
-        <v>81528.74414479875</v>
+        <v>103834.9195964809</v>
       </c>
       <c r="AE2" t="n">
-        <v>111551.2245332116</v>
+        <v>142071.5178651959</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.206876721162373e-06</v>
+        <v>8.342639590553408e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.164351851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>100904.9322269174</v>
+        <v>128512.4115988076</v>
       </c>
     </row>
   </sheetData>
@@ -3949,28 +3949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.9613077320235</v>
+        <v>92.49035399734969</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.98765948021101</v>
+        <v>126.5493827255607</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.11304776844214</v>
+        <v>114.4716872514408</v>
       </c>
       <c r="AD2" t="n">
-        <v>67961.3077320235</v>
+        <v>92490.35399734968</v>
       </c>
       <c r="AE2" t="n">
-        <v>92987.659480211</v>
+        <v>126549.3827255607</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.053497228729094e-06</v>
+        <v>8.98849417892051e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.35300925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>84113.04776844215</v>
+        <v>114471.6872514408</v>
       </c>
     </row>
   </sheetData>
@@ -4246,28 +4246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.04077791579685</v>
+        <v>93.94570408014441</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.46463820851243</v>
+        <v>128.5406569143537</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.4490657198676</v>
+        <v>116.2729170264269</v>
       </c>
       <c r="AD2" t="n">
-        <v>69040.77791579685</v>
+        <v>93945.70408014441</v>
       </c>
       <c r="AE2" t="n">
-        <v>94464.63820851242</v>
+        <v>128540.6569143537</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.007566308538633e-06</v>
+        <v>8.833780696337822e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.283564814814816</v>
       </c>
       <c r="AH2" t="n">
-        <v>85449.06571986761</v>
+        <v>116272.9170264269</v>
       </c>
     </row>
     <row r="3">
@@ -4352,28 +4352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.14545771587255</v>
+        <v>94.05038388022012</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.60786572912281</v>
+        <v>128.6838844349641</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.57862380693206</v>
+        <v>116.4024751134913</v>
       </c>
       <c r="AD3" t="n">
-        <v>69145.45771587256</v>
+        <v>94050.38388022012</v>
       </c>
       <c r="AE3" t="n">
-        <v>94607.8657291228</v>
+        <v>128683.8844349641</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.006469396782035e-06</v>
+        <v>8.83216775069505e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.283564814814816</v>
       </c>
       <c r="AH3" t="n">
-        <v>85578.62380693205</v>
+        <v>116402.4751134913</v>
       </c>
     </row>
   </sheetData>
@@ -4649,28 +4649,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.07204434911088</v>
+        <v>101.8180299740981</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.0851271401502</v>
+        <v>139.3119205049628</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.15138869031399</v>
+        <v>126.016186337515</v>
       </c>
       <c r="AD2" t="n">
-        <v>76072.04434911089</v>
+        <v>101818.0299740981</v>
       </c>
       <c r="AE2" t="n">
-        <v>104085.1271401502</v>
+        <v>139311.9205049628</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.319391946707359e-06</v>
+        <v>7.695950020673774e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.758101851851851</v>
       </c>
       <c r="AH2" t="n">
-        <v>94151.38869031399</v>
+        <v>126016.186337515</v>
       </c>
     </row>
     <row r="3">
@@ -4755,28 +4755,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.33711709924455</v>
+        <v>88.50119702445372</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.60659078663888</v>
+        <v>121.0912421660622</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.29115475369679</v>
+        <v>109.5344639663907</v>
       </c>
       <c r="AD3" t="n">
-        <v>71337.11709924455</v>
+        <v>88501.19702445372</v>
       </c>
       <c r="AE3" t="n">
-        <v>97606.59078663887</v>
+        <v>121091.2421660622</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.884189899390109e-06</v>
+        <v>8.513084170436108e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>88291.15475369678</v>
+        <v>109534.4639663907</v>
       </c>
     </row>
   </sheetData>
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.89507816697311</v>
+        <v>91.01191366597737</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.52879715058121</v>
+        <v>124.526515439994</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.79341721202562</v>
+        <v>112.6418795804959</v>
       </c>
       <c r="AD2" t="n">
-        <v>66895.07816697311</v>
+        <v>91011.91366597738</v>
       </c>
       <c r="AE2" t="n">
-        <v>91528.79715058122</v>
+        <v>124526.515439994</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.078464452097042e-06</v>
+        <v>9.12793654467167e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.451388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>82793.41721202561</v>
+        <v>112641.8795804958</v>
       </c>
     </row>
   </sheetData>
@@ -5349,28 +5349,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.67804698588296</v>
+        <v>89.25262296212395</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.86360139698817</v>
+        <v>122.1193762845548</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.28714540403803</v>
+        <v>110.46447440761</v>
       </c>
       <c r="AD2" t="n">
-        <v>65678.04698588296</v>
+        <v>89252.62296212395</v>
       </c>
       <c r="AE2" t="n">
-        <v>89863.60139698818</v>
+        <v>122119.3762845548</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.977021739665691e-06</v>
+        <v>9.167237661207656e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.775462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>81287.14540403803</v>
+        <v>110464.47440761</v>
       </c>
     </row>
   </sheetData>
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.11532117646634</v>
+        <v>96.03485010071969</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.0396080539197</v>
+        <v>131.399118666321</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.49196826775032</v>
+        <v>118.8585712006636</v>
       </c>
       <c r="AD2" t="n">
-        <v>73115.32117646634</v>
+        <v>96034.85010071969</v>
       </c>
       <c r="AE2" t="n">
-        <v>100039.6080539197</v>
+        <v>131399.118666321</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.752629745870821e-06</v>
+        <v>8.988370505198542e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.209490740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>90491.96826775033</v>
+        <v>118858.5712006636</v>
       </c>
     </row>
   </sheetData>
@@ -8764,28 +8764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.77696456103897</v>
+        <v>119.8587378516768</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.2050477093945</v>
+        <v>163.9960129229134</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.3510922789218</v>
+        <v>148.3444636194456</v>
       </c>
       <c r="AD2" t="n">
-        <v>90776.96456103897</v>
+        <v>119858.7378516768</v>
       </c>
       <c r="AE2" t="n">
-        <v>124205.0477093945</v>
+        <v>163996.0129229134</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.671215590367551e-06</v>
+        <v>7.612568560166187e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.206018518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>112351.0922789218</v>
+        <v>148344.4636194456</v>
       </c>
     </row>
   </sheetData>
@@ -9061,28 +9061,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.3083883744257</v>
+        <v>93.02938309149675</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.46255052726274</v>
+        <v>127.2869061124577</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.54261588047716</v>
+        <v>115.1388224414131</v>
       </c>
       <c r="AD2" t="n">
-        <v>68308.3883744257</v>
+        <v>93029.38309149675</v>
       </c>
       <c r="AE2" t="n">
-        <v>93462.55052726273</v>
+        <v>127286.9061124577</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.065489555875012e-06</v>
+        <v>8.96103784137354e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.283564814814816</v>
       </c>
       <c r="AH2" t="n">
-        <v>84542.61588047715</v>
+        <v>115138.8224414131</v>
       </c>
     </row>
   </sheetData>
@@ -9358,28 +9358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.51687181170844</v>
+        <v>99.10382033382801</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.5890273482214</v>
+        <v>135.5982191326688</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.98895175571886</v>
+        <v>122.656915411979</v>
       </c>
       <c r="AD2" t="n">
-        <v>73516.87181170844</v>
+        <v>99103.82033382801</v>
       </c>
       <c r="AE2" t="n">
-        <v>100589.0273482214</v>
+        <v>135598.2191326688</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.57170728897525e-06</v>
+        <v>8.091060689203079e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.543981481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>90988.95175571885</v>
+        <v>122656.915411979</v>
       </c>
     </row>
     <row r="3">
@@ -9464,28 +9464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.80982736922184</v>
+        <v>87.86788255918593</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.88512971564101</v>
+        <v>120.224713374821</v>
       </c>
       <c r="AC3" t="n">
-        <v>87.63854891473777</v>
+        <v>108.7506354668044</v>
       </c>
       <c r="AD3" t="n">
-        <v>70809.82736922184</v>
+        <v>87867.88255918593</v>
       </c>
       <c r="AE3" t="n">
-        <v>96885.12971564101</v>
+        <v>120224.713374821</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.913223304676034e-06</v>
+        <v>8.586999665544763e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.225694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>87638.54891473777</v>
+        <v>108750.6354668044</v>
       </c>
     </row>
   </sheetData>
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.037213473009</v>
+        <v>145.5302819782934</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.5577699729516</v>
+        <v>199.1209521455283</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.1887477159315</v>
+        <v>180.1171279408271</v>
       </c>
       <c r="AD2" t="n">
-        <v>110037.213473009</v>
+        <v>145530.2819782934</v>
       </c>
       <c r="AE2" t="n">
-        <v>150557.7699729516</v>
+        <v>199120.9521455283</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.781342689076596e-06</v>
+        <v>6.303272973916559e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.49768518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>136188.7477159315</v>
+        <v>180117.1279408271</v>
       </c>
     </row>
   </sheetData>
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.04900665085414</v>
+        <v>89.87662957830143</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.37116477618684</v>
+        <v>122.9731696660374</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.74626764669586</v>
+        <v>111.2367829470707</v>
       </c>
       <c r="AD2" t="n">
-        <v>66049.00665085413</v>
+        <v>89876.62957830144</v>
       </c>
       <c r="AE2" t="n">
-        <v>90371.16477618685</v>
+        <v>122973.1696660374</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.028170882212998e-06</v>
+        <v>9.174313182510762e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.642361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>81746.26764669585</v>
+        <v>111236.7829470707</v>
       </c>
     </row>
   </sheetData>
@@ -10355,28 +10355,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.32028558021072</v>
+        <v>91.64835683871175</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.11058469219978</v>
+        <v>125.3973250668199</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.31967976721621</v>
+        <v>113.4295803587267</v>
       </c>
       <c r="AD2" t="n">
-        <v>67320.28558021072</v>
+        <v>91648.35683871176</v>
       </c>
       <c r="AE2" t="n">
-        <v>92110.58469219977</v>
+        <v>125397.3250668199</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.089327634971855e-06</v>
+        <v>9.090822345649232e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.381944444444446</v>
       </c>
       <c r="AH2" t="n">
-        <v>83319.67976721622</v>
+        <v>113429.5803587267</v>
       </c>
     </row>
   </sheetData>
